--- a/Final Project/api/data/imports/Customer.xlsx
+++ b/Final Project/api/data/imports/Customer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/227940f08aeb2ad5/Documents/GitHub/CIDM6330/Final Project/api/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB4FD21-1D7B-4714-8B6C-091FF3D47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0CB4FD21-1D7B-4714-8B6C-091FF3D47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7400872D-5924-49DC-8D9A-FD01CAC78250}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9319D59-1452-494A-BCA1-CD7652DCFC00}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>GLOBAL ONE BANK</t>
-  </si>
-  <si>
     <t>HOUSTON</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>3CHP</t>
   </si>
   <si>
-    <t>FIFTH DISTRICT SAVINGS BANK</t>
-  </si>
-  <si>
     <t>NEW ORLEANS</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>1FDB</t>
   </si>
   <si>
-    <t>TIB</t>
-  </si>
-  <si>
     <t>DALLAS</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>fed_tax_bkt</t>
+  </si>
+  <si>
+    <t>BANK OF GIO</t>
+  </si>
+  <si>
+    <t>BANK OF JUDY</t>
+  </si>
+  <si>
+    <t>BANK OF JON</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,10 +503,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -515,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,19 +532,19 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -558,19 +558,19 @@
         <v>400026</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -584,19 +584,19 @@
         <v>540003</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>

--- a/Final Project/api/data/imports/Customer.xlsx
+++ b/Final Project/api/data/imports/Customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/227940f08aeb2ad5/Documents/GitHub/CIDM6330/Final Project/api/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{0CB4FD21-1D7B-4714-8B6C-091FF3D47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7400872D-5924-49DC-8D9A-FD01CAC78250}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{0CB4FD21-1D7B-4714-8B6C-091FF3D47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7D9B32-E09B-4F44-BE90-EE74EB8BC9AF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9319D59-1452-494A-BCA1-CD7652DCFC00}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <t>BANK OF JUDY</t>
   </si>
   <si>
-    <t>BANK OF JON</t>
+    <t>BANK OF JONTESTV2</t>
   </si>
 </sst>
 </file>
@@ -183,6 +183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,7 +490,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Final Project/api/data/imports/Customer.xlsx
+++ b/Final Project/api/data/imports/Customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/227940f08aeb2ad5/Documents/GitHub/CIDM6330/Final Project/api/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{0CB4FD21-1D7B-4714-8B6C-091FF3D47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7D9B32-E09B-4F44-BE90-EE74EB8BC9AF}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{0CB4FD21-1D7B-4714-8B6C-091FF3D47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{280A39C6-08F1-4F52-B300-B8DD4830E6ED}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9319D59-1452-494A-BCA1-CD7652DCFC00}"/>
   </bookViews>
@@ -127,10 +127,10 @@
     <t>BANK OF GIO</t>
   </si>
   <si>
-    <t>BANK OF JUDY</t>
-  </si>
-  <si>
-    <t>BANK OF JONTESTV2</t>
+    <t>BANK OF JONTESTV3FINAL</t>
+  </si>
+  <si>
+    <t>BANK OF AVION</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>400026</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -588,7 +588,7 @@
         <v>540003</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
